--- a/0JuBao/熊志宏的企业.xlsx
+++ b/0JuBao/熊志宏的企业.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FB\FbProjects\EnglishStu\0JuBao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC2FAF6-085B-4440-8F22-FBCD59F2B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E61B7A-471B-48B8-AB74-6B4E3A973963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="控股企业" sheetId="2" r:id="rId2"/>
+    <sheet name="间接控股" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="162">
   <si>
     <t>湖南省鸿运达机动车驾驶员培训有限公司</t>
   </si>
@@ -260,13 +262,302 @@
   <si>
     <t>该老板在该公司最终受益股份为40%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南通泰鸿运达驾驶员培训有限公司</t>
+  </si>
+  <si>
+    <t>500万(元)</t>
+  </si>
+  <si>
+    <t>该老板在该公司最终受益股份为31.75%</t>
+  </si>
+  <si>
+    <t>长沙智行驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>该老板在该公司最终受益股份为31.75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋勇TA任职1家企业 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙市运达机动车驾驶员培训有限公司</t>
+  </si>
+  <si>
+    <t>2016-08 至 2021-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏赟任职1家企业 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至 2024-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊志宏法人任期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该老板在该公司曾持有99.2%股权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该老板在该公司曾持有92.04%股权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该老板在该公司曾持有80%股权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该老板在该公司曾持有51%股权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>控股企业名称</t>
+  </si>
+  <si>
+    <t>投资占比</t>
+  </si>
+  <si>
+    <t>投资路径</t>
+  </si>
+  <si>
+    <t>鸿运达</t>
+  </si>
+  <si>
+    <t>路径1（占比约100%）</t>
+  </si>
+  <si>
+    <t>熊志宏</t>
+  </si>
+  <si>
+    <t>100% 湖南省鸿运达机动车驾驶员培训有限公司</t>
+  </si>
+  <si>
+    <t>康展驾驶</t>
+  </si>
+  <si>
+    <t>路径1（占比约90%）</t>
+  </si>
+  <si>
+    <t>100% 湖南省鸿运达机动车驾驶员培训有限公司 </t>
+  </si>
+  <si>
+    <t>90% 长沙市康展驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约5.5%）</t>
+  </si>
+  <si>
+    <t>55% 湖南尚品学车驾驶培训有限公司 </t>
+  </si>
+  <si>
+    <t>10% 长沙市康展驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径3（占比约3.7%）</t>
+  </si>
+  <si>
+    <t>82.25% 湖南共享学车网络科技有限公司 </t>
+  </si>
+  <si>
+    <t>45% 湖南尚品学车驾驶培训有限公司 </t>
+  </si>
+  <si>
+    <t>尚品信息</t>
+  </si>
+  <si>
+    <t>路径1（占比约88%）</t>
+  </si>
+  <si>
+    <t>88% 湖南尚品信息技术科技有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约6.6%）</t>
+  </si>
+  <si>
+    <t>12% 湖南尚品信息技术科技有限公司</t>
+  </si>
+  <si>
+    <t>路径3（占比约4.44%）</t>
+  </si>
+  <si>
+    <t>尚品学车</t>
+  </si>
+  <si>
+    <t>路径1（占比约55%）</t>
+  </si>
+  <si>
+    <t>55% 湖南尚品学车驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约37.01%）</t>
+  </si>
+  <si>
+    <t>45% 湖南尚品学车驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>共享学车</t>
+  </si>
+  <si>
+    <t>路径1（占比约82.25%）</t>
+  </si>
+  <si>
+    <t>82.25% 湖南共享学车网络科技有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约4.26%）</t>
+  </si>
+  <si>
+    <t>7.75% 湖南共享学车网络科技有限公司</t>
+  </si>
+  <si>
+    <t>湘麓驾</t>
+  </si>
+  <si>
+    <t>路径1（占比约65.8%）</t>
+  </si>
+  <si>
+    <t>80% 长沙湘麓驾驶员培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约3.41%）</t>
+  </si>
+  <si>
+    <t>7.75% 湖南共享学车网络科技有限公司 </t>
+  </si>
+  <si>
+    <t>鸿程驾驶</t>
+  </si>
+  <si>
+    <t>路径1（占比约36.85%）</t>
+  </si>
+  <si>
+    <t>67% 长沙鸿程驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约24.8%）</t>
+  </si>
+  <si>
+    <t>尚品驾驶</t>
+  </si>
+  <si>
+    <t>路径1（占比约35.75%）</t>
+  </si>
+  <si>
+    <t>65% 长沙尚品驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约24.06%）</t>
+  </si>
+  <si>
+    <t>路径1（占比约31.9%）</t>
+  </si>
+  <si>
+    <t>58% 湖南共享学车驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约21.47%）</t>
+  </si>
+  <si>
+    <t>路径1（占比约51%）</t>
+  </si>
+  <si>
+    <t>51% 湖南鸿运达停车管</t>
+  </si>
+  <si>
+    <t>新湘麓驾</t>
+  </si>
+  <si>
+    <t>路径1（占比约46.06%）</t>
+  </si>
+  <si>
+    <t>80% 长沙湘麓驾驶员培训有限公司 </t>
+  </si>
+  <si>
+    <t>70% 湖南新湘麓驾驶员培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约2.39%）</t>
+  </si>
+  <si>
+    <t>鸿蒙学车</t>
+  </si>
+  <si>
+    <t>70% 长沙鸿蒙学车驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>间接持股企业名称</t>
+  </si>
+  <si>
+    <t>法定代表人</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>甘露TA有2家企业 &gt;</t>
+  </si>
+  <si>
+    <t>朱</t>
+  </si>
+  <si>
+    <t>朱春武TA有1家企业 &gt;</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>熊毅TA有2家企业 &gt;</t>
+  </si>
+  <si>
+    <t>51% 湖南鸿运达停车管理有限公司</t>
+  </si>
+  <si>
+    <t>智行驾驶</t>
+  </si>
+  <si>
+    <t>路径1（占比约18.98%）</t>
+  </si>
+  <si>
+    <t>34.5% 长沙智行驾驶培训有限公司</t>
+  </si>
+  <si>
+    <t>路径2（占比约12.77%）</t>
+  </si>
+  <si>
+    <t>蒋</t>
+  </si>
+  <si>
+    <t>蒋勇TA有1家企业 &gt;</t>
+  </si>
+  <si>
+    <t>34.5% 湖南通泰鸿运达驾驶员培训有限公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +570,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,9 +633,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,6 +647,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -632,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -649,9 +953,11 @@
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.4140625" customWidth="1"/>
     <col min="9" max="9" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,39 +979,45 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>43455</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -726,9 +1038,13 @@
       <c r="H3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,14 +1066,16 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,14 +1097,16 @@
       <c r="G5" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -814,8 +1134,12 @@
       <c r="I6" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+      <c r="K6" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,14 +1161,16 @@
       <c r="G7" s="3">
         <v>0.88</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,14 +1192,16 @@
       <c r="G8" s="4">
         <v>0.82250000000000001</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -899,8 +1227,10 @@
         <v>59</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -926,8 +1256,10 @@
         <v>59</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -949,14 +1281,18 @@
       <c r="G11" s="3">
         <v>0.4</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -982,8 +1318,10 @@
       <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1009,8 +1347,10 @@
       <c r="I13" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1036,8 +1376,10 @@
       <c r="I14" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1059,8 +1401,10 @@
       <c r="I15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1082,54 +1426,60 @@
       <c r="I16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>42683</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>41677</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1151,8 +1501,10 @@
       <c r="I19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1174,6 +1526,1783 @@
       <c r="I20" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43181</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45574</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41843</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734EB4DD-4C06-4DBC-9F6A-C1BF5C4730EA}">
+  <dimension ref="A1:D105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="D80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="13">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="D84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="13">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="D95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3791EE-B16D-4905-B15B-79FE64AEC8DA}">
+  <dimension ref="A1:F132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="E68" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="E77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="E81" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="13">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="E92" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="13">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="E103" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="13">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="E112" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="13">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E121" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/0JuBao/熊志宏的企业.xlsx
+++ b/0JuBao/熊志宏的企业.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FB\FbProjects\EnglishStu\0JuBao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E61B7A-471B-48B8-AB74-6B4E3A973963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF401C4B-D3A6-4C8B-B098-2EBDD8E80DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="控股企业" sheetId="2" r:id="rId2"/>
-    <sheet name="间接控股" sheetId="3" r:id="rId3"/>
+    <sheet name="企业名称" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="控股企业" sheetId="2" r:id="rId3"/>
+    <sheet name="间接控股" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="172">
   <si>
     <t>湖南省鸿运达机动车驾驶员培训有限公司</t>
   </si>
@@ -81,9 +82,6 @@
   </si>
   <si>
     <t>湖南省长沙市岳麓区</t>
-  </si>
-  <si>
-    <t>长沙海川驾驶员培训有限公司</t>
   </si>
   <si>
     <t>300万(元)</t>
@@ -551,6 +549,50 @@
   </si>
   <si>
     <t>34.5% 湖南通泰鸿运达驾驶员培训有限公司</t>
+  </si>
+  <si>
+    <t>朱春武TA有1家企业 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘露TA有2家企业 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帅TA有7家企业 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊毅TA有2家企业 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙鸿程驾驶培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙尚品驾驶培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南共享学车驾驶培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南新湘麓驾驶员培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙鸿蒙学车驾驶培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙智行驾驶培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙海川驾驶员培训有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,7 +622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,15 +669,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -641,21 +686,31 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -939,7 +994,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K1:K23"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -950,7 +1005,7 @@
     <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.4140625" customWidth="1"/>
     <col min="9" max="9" width="32.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
@@ -959,535 +1014,559 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45001</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42922</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43455</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>44165</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42664</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>41927</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="14">
+        <v>43181</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43633</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
-        <v>43455</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8" t="s">
+      <c r="C10" s="14">
+        <v>45301</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14">
+        <v>42779</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43633</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="I11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14">
+        <v>45390</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>41927</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45405</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42664</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>41647</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44165</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42922</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42234</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44428</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
-        <v>42779</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45301</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45405</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>44970</v>
+        <v>44428</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
-        <v>42760</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="14">
+        <v>44970</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
+      <c r="F15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>40492</v>
+        <v>42234</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>42683</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14">
+        <v>42760</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41843</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6">
-        <v>41677</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>45390</v>
+        <v>41647</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -1495,124 +1574,229 @@
       <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45001</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="A20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14">
+        <v>40492</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>64</v>
+      <c r="F20" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>41677</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
+        <v>42683</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45574</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="2">
-        <v>43181</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45574</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2">
-        <v>41843</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="9"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="7"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789E3890-D8BA-41FF-8EDE-33277A4CB695}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>557.84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>236.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>369.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>694.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>755.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2142.9299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>84.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>554.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>495.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12.88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,12 +1804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734EB4DD-4C06-4DBC-9F6A-C1BF5C4730EA}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1638,16 +1822,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1655,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1669,12 +1853,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,76 +1866,76 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1759,13 +1943,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1773,57 +1957,57 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,13 +2015,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="D30" t="s">
         <v>108</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.92010000000000003</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,32 +2029,32 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,13 +2062,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="D37" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.86509999999999998</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,32 +2076,32 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,56 +2109,56 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="D44" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" s="13">
-        <v>0.69210000000000005</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,56 +2166,56 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="D53" t="s">
         <v>123</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0.61650000000000005</v>
-      </c>
-      <c r="D53" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,56 +2223,56 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="10">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="D62" t="s">
         <v>127</v>
-      </c>
-      <c r="C62" s="13">
-        <v>0.59809999999999997</v>
-      </c>
-      <c r="D62" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,56 +2280,56 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="13">
+        <v>112</v>
+      </c>
+      <c r="C71" s="10">
         <v>0.53369999999999995</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2153,13 +2337,13 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="12">
+        <v>87</v>
+      </c>
+      <c r="C80" s="9">
         <v>0.51</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2167,17 +2351,17 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2185,66 +2369,66 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="10">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="D84" t="s">
         <v>136</v>
-      </c>
-      <c r="C84" s="13">
-        <v>0.48449999999999999</v>
-      </c>
-      <c r="D84" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,66 +2436,66 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="13">
+        <v>140</v>
+      </c>
+      <c r="C95" s="10">
         <v>0.48449999999999999</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2320,11 +2504,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3791EE-B16D-4905-B15B-79FE64AEC8DA}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
@@ -2340,22 +2524,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2363,16 +2547,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -2380,68 +2564,68 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2449,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E15" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -2469,60 +2653,60 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2530,16 +2714,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="E27" t="s">
         <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0.92010000000000003</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -2550,35 +2734,35 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2586,16 +2770,16 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="E34" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="13">
-        <v>0.86509999999999998</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -2606,35 +2790,35 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,16 +2826,16 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="E41" t="s">
         <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0.69210000000000005</v>
-      </c>
-      <c r="E41" t="s">
-        <v>119</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
@@ -2659,48 +2843,48 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2708,16 +2892,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="E50" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="13">
-        <v>0.61650000000000005</v>
-      </c>
-      <c r="E50" t="s">
-        <v>124</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
@@ -2725,48 +2909,48 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2774,16 +2958,16 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="E59" t="s">
         <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="13">
-        <v>0.59809999999999997</v>
-      </c>
-      <c r="E59" t="s">
-        <v>128</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
@@ -2791,48 +2975,48 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="C60" t="s">
-        <v>39</v>
-      </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,16 +3024,16 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="13">
+        <v>146</v>
+      </c>
+      <c r="D68" s="10">
         <v>0.53369999999999995</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
@@ -2857,48 +3041,48 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2906,16 +3090,16 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="12">
+        <v>146</v>
+      </c>
+      <c r="D77" s="9">
         <v>0.51</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2926,20 +3110,20 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2947,16 +3131,16 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="E81" t="s">
         <v>136</v>
-      </c>
-      <c r="C81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="13">
-        <v>0.48449999999999999</v>
-      </c>
-      <c r="E81" t="s">
-        <v>137</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
@@ -2964,58 +3148,58 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,16 +3207,16 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D92" s="13">
+        <v>145</v>
+      </c>
+      <c r="D92" s="10">
         <v>0.48449999999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
@@ -3040,58 +3224,58 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3099,16 +3283,16 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="E103" t="s">
         <v>155</v>
-      </c>
-      <c r="C103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="13">
-        <v>0.31740000000000002</v>
-      </c>
-      <c r="E103" t="s">
-        <v>156</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
@@ -3116,48 +3300,48 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,16 +3349,16 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
-      </c>
-      <c r="D112" s="13">
+        <v>158</v>
+      </c>
+      <c r="D112" s="10">
         <v>0.31740000000000002</v>
       </c>
       <c r="E112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F112" t="s">
         <v>3</v>
@@ -3182,45 +3366,45 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3228,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D121" s="10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E121" t="s">
         <v>102</v>
-      </c>
-      <c r="C121" t="s">
-        <v>147</v>
-      </c>
-      <c r="D121" s="13">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="E121" t="s">
-        <v>103</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
@@ -3248,60 +3432,60 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
